--- a/PHAN_TICH_DINH_LUONG_TRONG_QUAN_LY/SV_ĐHV.xlsx
+++ b/PHAN_TICH_DINH_LUONG_TRONG_QUAN_LY/SV_ĐHV.xlsx
@@ -336,7 +336,17 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.12210414438935872"/>
+          <c:y val="0.19797538562278044"/>
+          <c:w val="0.82482589676290463"/>
+          <c:h val="0.58931645351082085"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
@@ -2316,7 +2326,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.25" x14ac:dyDescent="0.3"/>
